--- a/Evolution of EROI/all_results.xlsx
+++ b/Evolution of EROI/all_results.xlsx
@@ -28,6 +28,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EROI wo GW adj" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EROIs" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mix" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="By region" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>working paper, including further info:</t>
   </si>
@@ -221,6 +222,33 @@
   </si>
   <si>
     <t>Total (PWh/a)</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>OECD Europe</t>
+  </si>
+  <si>
+    <t>OECD North America</t>
+  </si>
+  <si>
+    <t>OECD Pacific</t>
+  </si>
+  <si>
+    <t>Economies in transition</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
+    <t>Rest of developing Asia</t>
+  </si>
+  <si>
+    <t>Africa and Middle East</t>
   </si>
 </sst>
 </file>
@@ -17176,6 +17204,612 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="11" t="n"/>
+      <c r="D1" s="11" t="n"/>
+      <c r="E1" s="11" t="n"/>
+      <c r="F1" s="11" t="n"/>
+      <c r="G1" s="11" t="n"/>
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="11" t="n"/>
+      <c r="J1" s="11" t="n"/>
+      <c r="K1" s="11" t="n"/>
+      <c r="L1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="11" t="n"/>
+      <c r="N1" s="11" t="n"/>
+      <c r="O1" s="11" t="n"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="11" t="n">
+        <v>2030</v>
+      </c>
+      <c r="E2" s="11" t="n"/>
+      <c r="F2" s="11" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G2" s="11" t="n"/>
+      <c r="H2" s="11" t="n">
+        <v>2030</v>
+      </c>
+      <c r="I2" s="11" t="n"/>
+      <c r="J2" s="11" t="n">
+        <v>2050</v>
+      </c>
+      <c r="K2" s="11" t="n"/>
+      <c r="L2" s="11" t="n">
+        <v>2030</v>
+      </c>
+      <c r="M2" s="11" t="n"/>
+      <c r="N2" s="11" t="n">
+        <v>2050</v>
+      </c>
+      <c r="O2" s="11" t="n"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H8" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J10" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L10" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="n">
+        <v>67</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>61</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L11" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>34.29</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>45.97</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>28.01</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>40.22</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>36.74</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>64.04000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
